--- a/python_fun/python mini works/PY-Happy birthday text automation/reminders.xlsx
+++ b/python_fun/python mini works/PY-Happy birthday text automation/reminders.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repos\vroom-vroom\python_fun\python mini works\PY-Happy birthday text automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B26DC2-7CBA-4022-8C43-0FB17D386194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73B9B25-E193-45ED-99E4-9B3E5261F2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="36" windowWidth="17856" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>phone_number</t>
   </si>
   <si>
-    <t>Reminder for Dunzo yo… do it</t>
+    <t>wish good day to gery</t>
   </si>
 </sst>
 </file>
@@ -52,8 +52,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="\+\1\ \(000\)\ 000\-0000"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="\+@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,17 +371,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -389,7 +393,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -397,38 +401,68 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>45305.713194444441</v>
-      </c>
-      <c r="C2" t="str">
-        <f>"+1"&amp;"7744447177"</f>
-        <v>+17744447177</v>
+      <c r="B2" s="2">
+        <v>45675.527777777781</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>"+91"&amp;9994198795</f>
+        <v>+919994198795</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="3"/>
-      <c r="C10"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
